--- a/similarities/split_global/harmonic_similarity_timestamps_1.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,698 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F', 'C:7', 'F']]</t>
+          <t>['C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.590000', '0:00:16.750000')]</t>
+          <t>('0:00:09.060000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_233</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['E', 'A', 'A/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>['F/3', 'Bb', 'Bb/2']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+          <t>('0:00:33.141247', '0:00:39.491904')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
+          <t>('0:01:32.479000', '0:01:37.535000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-22#t=33.141247</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-233#t=92.479</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A'], ['E', 'A', 'D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E/5', 'F#/4', 'B'], ['F#/4', 'B', 'E/5']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:53.551034', '0:00:58.903233'), ('0:00:09.305410', '0:00:12.800013')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:02:06.195000', '0:02:11.396000'), ('0:02:07.431000', '0:02:12.656000')]</t>
+          <t>('0:00:24.180000', '0:00:30.020000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=53.551034', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=9.30541']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=126.195', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=127.431']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:19.727000', '0:00:41.282000')]</t>
+          <t>('0:00:25.800000', '0:00:31.820000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=19.727']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A/3', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:58.557000', '0:01:02.834000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:03.320000', '0:00:08.680000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=3.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_64</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_65</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min7', 'G:7', 'C:maj6']]</t>
+          <t>['B', 'F#', 'B']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['G:maj', 'D:maj', 'G:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.660000', '0:00:24.030000')]</t>
+          <t>('0:00:24.838594', '0:00:43.252018')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:07.420000', '0:00:09.880000')]</t>
+          <t>('0:00:45.480000', '0:00:48')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=19.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-65#t=7.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=45.48</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>isophonics_182</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['G', 'C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:30.654941', '0:00:38.514896')]</t>
+          <t>('0:02:18.020000', '0:02:23.320000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:40.960000', '0:00:43.300000')]</t>
+          <t>('0:00:59.182426', '0:01:06.310952')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=30.654941']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-17#t=138.02</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=40.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-182#t=59.182426</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:min', 'G', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:min', 'F:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000')]</t>
+          <t>('0:01:20.956000', '0:01:25.176000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:42.560000', '0:00:48.720000')]</t>
+          <t>('0:01:02.760000', '0:01:12.921000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=80.956</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=42.56']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=62.76</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'A', 'E']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:17.463236')]</t>
+          <t>('0:00:29.960000', '0:00:31.680000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:55.943242', '0:01:05.045464')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=29.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_42</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>isophonics_15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7/b7']]</t>
+          <t>['F', 'C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:41.770000', '0:00:54.590000')]</t>
+          <t>('0:02:08.160000', '0:02:09.880000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:49.217000', '0:00:53.859000')]</t>
+          <t>('0:01:00.276984', '0:01:27.246961')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-42#t=41.77']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=128.16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=49.217']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-15#t=60.276984</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_174</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+          <t>('0:00:11.700000', '0:00:20.020000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=100.74']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_32</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G', 'D:7', 'G']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:11.550000', '0:00:25.740000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:17.660000')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_183</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>isophonics_218</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'D', 'A:7']]</t>
+          <t>['Bb:7', 'Eb', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj/G', 'G:7']]</t>
+          <t>['G:7', 'C', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:05.097068', '0:01:13.909041')]</t>
+          <t>('0:02:14.260000', '0:02:19.700000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:54.740000', '0:01:00.220000')]</t>
+          <t>('0:00:35.997000', '0:00:42.131000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=65.097068']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=54.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-218#t=35.997</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:min/E', 'E:7', 'A:min'], ['C:maj', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:30.020000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:02:18.800000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:39.480000', '0:00:51.460000'), ('0:00:33.920000', '0:00:41.920000')]</t>
+          <t>('0:00:09.162102', '0:00:15.791400')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=23.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=39.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=33.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
